--- a/HIV_PPI_map.xlsx
+++ b/HIV_PPI_map.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amstutzal/Documents/GitHub/quarto-website-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBE68D6-2B1C-8C42-8CF5-8D9022D0E555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F197F8F7-1ABF-C44F-B85A-AB4D1CA5DD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="29400" windowHeight="17400" xr2:uid="{D12A7DC9-9E3F-7F4D-A9DC-A49EAD0313CF}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="29400" windowHeight="17400" activeTab="3" xr2:uid="{D12A7DC9-9E3F-7F4D-A9DC-A49EAD0313CF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Prospective Clinical Trial" sheetId="2" r:id="rId1"/>
-    <sheet name="Observational Study" sheetId="6" r:id="rId2"/>
+    <sheet name="Prospective Clinical Study" sheetId="2" r:id="rId1"/>
+    <sheet name="Observational Analysis" sheetId="6" r:id="rId2"/>
     <sheet name="Qualitative Study" sheetId="3" r:id="rId3"/>
     <sheet name="Laboratory Study" sheetId="5" r:id="rId4"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="100">
   <si>
     <t>Phase</t>
   </si>
@@ -329,9 +329,6 @@
     <t>One PPI representative co-creates or reviews</t>
   </si>
   <si>
-    <t>PPI representatives wrote a letter of support for a project funding</t>
-  </si>
-  <si>
     <t>PPI representatives provide a formal letter of support</t>
   </si>
   <si>
@@ -459,13 +456,22 @@
   </si>
   <si>
     <t>"Using informal individual interviews, finding out that our patients have different priorities than we do wasn't easy, but ultimately very rewarding. It was a matter of finding a compromise. We achieved that by setting up a somewhat unconventional study design that captured both physical and mental quality of life."</t>
+  </si>
+  <si>
+    <t>Several strategies were used to recruit PPI members. We (1) approached several individual PPI members who had participated in the initial focus groups or in the pilot study of the intervention; (2) mailed letters or invitations with information about the study to leaders in the HIV field, Community-based organisations, faith-based organizations, HIV medical care providers, and other service agencies to attend an informational meeting about the project; (3) reviewed an existing database of former advocates and PPI members who served on previous projects and mailed them the invitational letter; and (4) accepted referrals via word of mouth from colleagues and associates.</t>
+  </si>
+  <si>
+    <t>Active outreach to recruit PPI members using several strategies</t>
+  </si>
+  <si>
+    <t>PPI representatives wrote a letter of support for a project funding proposal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -534,6 +540,13 @@
       <color theme="1"/>
       <name val="Candara"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -622,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -645,12 +658,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE7E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -775,6 +803,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1101,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A937B368-6BA3-114A-B184-8E5DAF134489}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="C1" zoomScale="58" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1139,10 +1173,10 @@
         <v>25</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="H1" s="13"/>
     </row>
@@ -1170,7 +1204,7 @@
       </c>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
@@ -1178,23 +1212,23 @@
         <v>4</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>41</v>
+        <v>97</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>77</v>
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
@@ -1208,17 +1242,17 @@
         <v>49</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="82" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>3</v>
       </c>
@@ -1229,43 +1263,44 @@
         <v>6</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="82" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="68" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>3</v>
       </c>
@@ -1276,19 +1311,19 @@
         <v>8</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="68" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>3</v>
       </c>
@@ -1302,16 +1337,16 @@
         <v>36</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>3</v>
       </c>
@@ -1325,16 +1360,16 @@
         <v>36</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>3</v>
       </c>
@@ -1345,19 +1380,19 @@
         <v>8</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>3</v>
       </c>
@@ -1365,48 +1400,48 @@
         <v>7</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>37</v>
+      <c r="C12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>3</v>
       </c>
@@ -1420,30 +1455,30 @@
         <v>37</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>38</v>
+      <c r="A14" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>28</v>
@@ -1452,7 +1487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>11</v>
       </c>
@@ -1466,16 +1501,16 @@
         <v>38</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>11</v>
       </c>
@@ -1489,39 +1524,39 @@
         <v>38</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>14</v>
+      <c r="B17" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>11</v>
       </c>
@@ -1529,22 +1564,22 @@
         <v>14</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>11</v>
       </c>
@@ -1557,64 +1592,63 @@
       <c r="D19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="31" t="s">
-        <v>93</v>
+      <c r="F19" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>14</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>19</v>
+      <c r="B21" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
         <v>17</v>
       </c>
@@ -1625,66 +1659,66 @@
         <v>19</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C24" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E24" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>22</v>
       </c>
@@ -1695,20 +1729,20 @@
         <v>24</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>22</v>
       </c>
@@ -1719,25 +1753,46 @@
         <v>24</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="45"/>
-    </row>
-    <row r="27" spans="1:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="C27" s="27"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="C28" s="27"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="27"/>
@@ -1747,10 +1802,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="27"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="27"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="27"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="27"/>
@@ -1764,8 +1819,8 @@
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="27"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="27"/>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="27"/>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="27"/>
@@ -1776,22 +1831,25 @@
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="27"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="27"/>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="27"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="27"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="27"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{0C28B1B2-C5B8-8247-B671-284344BE548D}"/>
-    <hyperlink ref="G5" r:id="rId2" display="https://tinyurl.com/Denison2017" xr:uid="{516FE508-15A8-A44F-A64E-20AE04DDD9D6}"/>
-    <hyperlink ref="G10" r:id="rId3" xr:uid="{41F4E5C8-8C1B-2742-9B0E-EA175834140F}"/>
+    <hyperlink ref="G6" r:id="rId2" display="https://tinyurl.com/Denison2017" xr:uid="{516FE508-15A8-A44F-A64E-20AE04DDD9D6}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{41F4E5C8-8C1B-2742-9B0E-EA175834140F}"/>
     <hyperlink ref="F2" r:id="rId4" xr:uid="{71E88854-64A9-514F-AE8E-827C82442CDB}"/>
-    <hyperlink ref="F3" r:id="rId5" xr:uid="{7F89BF09-2D98-9541-994E-5902E4C2F0AD}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{7F89BF09-2D98-9541-994E-5902E4C2F0AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -1800,13 +1858,590 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9896BA69-9F42-4542-A522-82F9D25BAA09}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView zoomScale="58" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A2" zoomScale="58" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5" style="39" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="77.5" style="23" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="256" style="1" customWidth="1"/>
+    <col min="6" max="6" width="51.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="90" style="8" customWidth="1"/>
+    <col min="8" max="8" width="50.1640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="72.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="50.1640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="82" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="44"/>
+    </row>
+    <row r="20" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="C25" s="27"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="27"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="27"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="27"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="27"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="27"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="27"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="27"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="27"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="27"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="27"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="27"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{2E8F3935-01FC-D045-A837-3B7356B1B1FC}"/>
+    <hyperlink ref="G6" r:id="rId2" display="https://tinyurl.com/Denison2017" xr:uid="{955EF35C-9B7A-864D-B7E0-C6EF7A601BDF}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{7148E4E6-DAAC-274C-B790-CD4483FEF8DF}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{D2600E8C-D104-234C-AFC2-6C1FD7E545C9}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{832185F4-4F71-D940-A38D-976F3B69BD56}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DB03BF-C7A2-3F47-94E7-4ED2DC15B24B}">
+  <dimension ref="A1:J55"/>
+  <sheetViews>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5" style="39" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" style="39" customWidth="1"/>
@@ -1838,10 +2473,10 @@
         <v>25</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="H1" s="13"/>
     </row>
@@ -1869,7 +2504,7 @@
       </c>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
@@ -1877,23 +2512,23 @@
         <v>4</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>41</v>
+        <v>97</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>77</v>
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
@@ -1907,17 +2542,17 @@
         <v>49</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="82" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>3</v>
       </c>
@@ -1928,43 +2563,44 @@
         <v>6</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="82" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="68" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>3</v>
       </c>
@@ -1975,19 +2611,19 @@
         <v>8</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="68" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>3</v>
       </c>
@@ -2001,16 +2637,16 @@
         <v>36</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>3</v>
       </c>
@@ -2024,16 +2660,16 @@
         <v>36</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>3</v>
       </c>
@@ -2044,19 +2680,19 @@
         <v>8</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>3</v>
       </c>
@@ -2064,48 +2700,48 @@
         <v>7</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>37</v>
+      <c r="C12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>3</v>
       </c>
@@ -2119,27 +2755,39 @@
         <v>37</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G14" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>11</v>
       </c>
@@ -2150,7 +2798,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>11</v>
       </c>
@@ -2161,17 +2809,18 @@
       <c r="F16" s="17"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="26"/>
       <c r="D17" s="18"/>
       <c r="E17" s="14"/>
       <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>11</v>
       </c>
@@ -2180,67 +2829,53 @@
       <c r="D18" s="18"/>
       <c r="E18" s="14"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="26"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="31"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+    </row>
+    <row r="21" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>19</v>
+      <c r="B21" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
         <v>17</v>
       </c>
@@ -2251,66 +2886,66 @@
         <v>19</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C24" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E24" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>22</v>
       </c>
@@ -2321,20 +2956,20 @@
         <v>24</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>22</v>
       </c>
@@ -2345,93 +2980,117 @@
         <v>24</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="45"/>
-    </row>
-    <row r="27" spans="1:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="C27" s="27"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="C28" s="27"/>
-    </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="27"/>
     </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="27"/>
     </row>
-    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="27"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="33" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C33" s="27"/>
-    </row>
-    <row r="34" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="27"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="27"/>
     </row>
-    <row r="35" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="27"/>
     </row>
-    <row r="36" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="27"/>
     </row>
-    <row r="37" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="27"/>
     </row>
-    <row r="47" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C47" s="27"/>
-    </row>
-    <row r="48" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="27"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="27"/>
     </row>
-    <row r="49" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="27"/>
     </row>
-    <row r="50" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="27"/>
     </row>
-    <row r="52" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C52" s="27"/>
-    </row>
-    <row r="53" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="27"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="27"/>
     </row>
-    <row r="54" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="27"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{2E8F3935-01FC-D045-A837-3B7356B1B1FC}"/>
-    <hyperlink ref="G5" r:id="rId2" display="https://tinyurl.com/Denison2017" xr:uid="{955EF35C-9B7A-864D-B7E0-C6EF7A601BDF}"/>
-    <hyperlink ref="G10" r:id="rId3" xr:uid="{7148E4E6-DAAC-274C-B790-CD4483FEF8DF}"/>
-    <hyperlink ref="F2" r:id="rId4" xr:uid="{D2600E8C-D104-234C-AFC2-6C1FD7E545C9}"/>
-    <hyperlink ref="F3" r:id="rId5" xr:uid="{832185F4-4F71-D940-A38D-976F3B69BD56}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{6D122F4A-CB46-B04E-AA18-1A957E677834}"/>
+    <hyperlink ref="G6" r:id="rId2" display="https://tinyurl.com/Denison2017" xr:uid="{88279D12-E915-0446-8C45-0754B3E4B9DC}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{BB7021FD-F1F3-6240-B055-A7491B0DD72C}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{A1CAC6C9-F9E5-1A4D-A7A6-5B7C18C29F74}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{EE9A31BD-4185-084A-8D44-8E775FFAB16C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DB03BF-C7A2-3F47-94E7-4ED2DC15B24B}">
-  <dimension ref="A1:J54"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BEAB4F-DD8E-DE49-AED7-9E5A493EBAC1}">
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5" style="39" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" style="39" customWidth="1"/>
@@ -2446,7 +3105,7 @@
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -2463,14 +3122,14 @@
         <v>25</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>3</v>
       </c>
@@ -2494,7 +3153,7 @@
       </c>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
@@ -2502,23 +3161,23 @@
         <v>4</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>41</v>
+        <v>97</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>77</v>
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
@@ -2532,17 +3191,17 @@
         <v>49</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="82" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>3</v>
       </c>
@@ -2553,43 +3212,44 @@
         <v>6</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="82" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="68" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>3</v>
       </c>
@@ -2600,19 +3260,19 @@
         <v>8</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>3</v>
       </c>
@@ -2626,16 +3286,16 @@
         <v>36</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>3</v>
       </c>
@@ -2649,16 +3309,16 @@
         <v>36</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>3</v>
       </c>
@@ -2669,19 +3329,19 @@
         <v>8</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>3</v>
       </c>
@@ -2689,71 +3349,44 @@
         <v>7</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>11</v>
       </c>
@@ -2764,152 +3397,178 @@
       <c r="F14" s="17"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="26"/>
       <c r="D15" s="18"/>
       <c r="E15" s="14"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="32"/>
-    </row>
-    <row r="16" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="26"/>
       <c r="D16" s="18"/>
       <c r="E16" s="14"/>
       <c r="F16" s="17"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="26"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="43"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="44"/>
+    </row>
+    <row r="20" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>48</v>
+      <c r="B20" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>19</v>
+      <c r="B21" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>19</v>
+      <c r="G21" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>91</v>
+      <c r="E22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>20</v>
+        <v>78</v>
+      </c>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
@@ -2922,780 +3581,85 @@
         <v>24</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="45"/>
-    </row>
-    <row r="27" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="C25" s="27"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="27"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="27"/>
     </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="27"/>
-    </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C30" s="27"/>
-    </row>
-    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="27"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="33" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="27"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="27"/>
     </row>
-    <row r="34" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="27"/>
     </row>
-    <row r="35" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="27"/>
     </row>
-    <row r="36" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C36" s="27"/>
-    </row>
-    <row r="37" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C37" s="27"/>
-    </row>
-    <row r="47" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="27"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="27"/>
     </row>
-    <row r="48" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="27"/>
     </row>
-    <row r="49" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C49" s="27"/>
-    </row>
-    <row r="50" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="27"/>
     </row>
-    <row r="52" spans="3:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="27"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="27"/>
-    </row>
-    <row r="53" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C53" s="27"/>
-    </row>
-    <row r="54" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C54" s="27"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{6D122F4A-CB46-B04E-AA18-1A957E677834}"/>
-    <hyperlink ref="G5" r:id="rId2" display="https://tinyurl.com/Denison2017" xr:uid="{88279D12-E915-0446-8C45-0754B3E4B9DC}"/>
-    <hyperlink ref="G10" r:id="rId3" xr:uid="{BB7021FD-F1F3-6240-B055-A7491B0DD72C}"/>
-    <hyperlink ref="F2" r:id="rId4" xr:uid="{A1CAC6C9-F9E5-1A4D-A7A6-5B7C18C29F74}"/>
-    <hyperlink ref="F3" r:id="rId5" xr:uid="{EE9A31BD-4185-084A-8D44-8E775FFAB16C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BEAB4F-DD8E-DE49-AED7-9E5A493EBAC1}">
-  <dimension ref="A1:J54"/>
-  <sheetViews>
-    <sheetView zoomScale="44" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.5" style="39" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="77.5" style="23" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="256" style="1" customWidth="1"/>
-    <col min="6" max="6" width="51.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="90" style="8" customWidth="1"/>
-    <col min="8" max="8" width="50.1640625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="72.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="50.1640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="82" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="68" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="32"/>
-    </row>
-    <row r="16" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="45"/>
-    </row>
-    <row r="27" spans="1:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="C27" s="27"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C28" s="27"/>
-    </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C29" s="27"/>
-    </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C30" s="27"/>
-    </row>
-    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C31" s="27"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="33" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C33" s="27"/>
-    </row>
-    <row r="34" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C34" s="27"/>
-    </row>
-    <row r="35" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C35" s="27"/>
-    </row>
-    <row r="36" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C36" s="27"/>
-    </row>
-    <row r="37" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C37" s="27"/>
-    </row>
-    <row r="47" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C47" s="27"/>
-    </row>
-    <row r="48" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C48" s="27"/>
-    </row>
-    <row r="49" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C49" s="27"/>
-    </row>
-    <row r="50" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C50" s="27"/>
-    </row>
-    <row r="52" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C52" s="27"/>
-    </row>
-    <row r="53" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C53" s="27"/>
-    </row>
-    <row r="54" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C54" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{0FD96A87-3E37-F242-8754-E80581323253}"/>
-    <hyperlink ref="G5" r:id="rId2" display="https://tinyurl.com/Denison2017" xr:uid="{EF5C227F-4C9E-5B4E-B597-FC39F014F81E}"/>
-    <hyperlink ref="G10" r:id="rId3" xr:uid="{18AFB948-0655-E94E-95ED-5CBA8DB1DC7D}"/>
+    <hyperlink ref="G6" r:id="rId2" display="https://tinyurl.com/Denison2017" xr:uid="{EF5C227F-4C9E-5B4E-B597-FC39F014F81E}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{18AFB948-0655-E94E-95ED-5CBA8DB1DC7D}"/>
     <hyperlink ref="F2" r:id="rId4" xr:uid="{3792777F-70D0-BE47-9FCA-43624369342D}"/>
-    <hyperlink ref="F3" r:id="rId5" xr:uid="{F40B427A-C538-5343-9CEF-0AB3EF0059C0}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{F40B427A-C538-5343-9CEF-0AB3EF0059C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Confidentiality xmlns="8afd58ea-34e0-468c-a1a9-1a451fe987c3">Intern</Confidentiality>
-    <Patientdata xmlns="8afd58ea-34e0-468c-a1a9-1a451fe987c3">false</Patientdata>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7b25110-8afa-4891-9dad-292b06224e5c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8afd58ea-34e0-468c-a1a9-1a451fe987c3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="USB-Dokument" ma:contentTypeID="0x01010074254FFFFA788748BE9570FD90FA56DE00370558F53FB40248A3A7046E902C7F31" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues USB-Dokument in der Bibliothek erstellen." ma:contentTypeScope="" ma:versionID="1f35108635821915ad428134d2c9265d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afd58ea-34e0-468c-a1a9-1a451fe987c3" xmlns:ns3="b7b25110-8afa-4891-9dad-292b06224e5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9fe979b66d85b2b570ade49cecd3babb" ns2:_="" ns3:_="">
     <xsd:import namespace="8afd58ea-34e0-468c-a1a9-1a451fe987c3"/>
@@ -3900,10 +3864,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Confidentiality xmlns="8afd58ea-34e0-468c-a1a9-1a451fe987c3">Intern</Confidentiality>
+    <Patientdata xmlns="8afd58ea-34e0-468c-a1a9-1a451fe987c3">false</Patientdata>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7b25110-8afa-4891-9dad-292b06224e5c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8afd58ea-34e0-468c-a1a9-1a451fe987c3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B2C2DC3-B697-4017-A9C6-64913115FAF3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BBEB25A-8A12-410B-9923-69685E70A23C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8afd58ea-34e0-468c-a1a9-1a451fe987c3"/>
+    <ds:schemaRef ds:uri="b7b25110-8afa-4891-9dad-292b06224e5c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3926,20 +3923,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BBEB25A-8A12-410B-9923-69685E70A23C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B2C2DC3-B697-4017-A9C6-64913115FAF3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8afd58ea-34e0-468c-a1a9-1a451fe987c3"/>
-    <ds:schemaRef ds:uri="b7b25110-8afa-4891-9dad-292b06224e5c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>